--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>Este riesgo esta por aprobar</t>
+  </si>
+  <si>
+    <t>LOGISTICA</t>
+  </si>
+  <si>
+    <t>UNIDAD EXTRA</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>ASAS</t>
+  </si>
+  <si>
+    <t>TIPO D</t>
+  </si>
+  <si>
+    <t>ASD</t>
   </si>
 </sst>
 </file>
@@ -467,7 +485,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +715,62 @@
       </c>
       <c r="R4" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -86,43 +86,43 @@
     <t>PROCESO LOGISTICO</t>
   </si>
   <si>
+    <t>ACTIVO B</t>
+  </si>
+  <si>
+    <t>TIPO A</t>
+  </si>
+  <si>
+    <t>Cattegoria A</t>
+  </si>
+  <si>
+    <t>Javier Prado</t>
+  </si>
+  <si>
+    <t>Gerente de RH</t>
+  </si>
+  <si>
+    <t>Gerente de Logistica</t>
+  </si>
+  <si>
+    <t>ValorA</t>
+  </si>
+  <si>
     <t>asd</t>
   </si>
   <si>
-    <t>TIPO A</t>
-  </si>
-  <si>
-    <t>Cattegoria A</t>
-  </si>
-  <si>
-    <t>Javier Prado</t>
-  </si>
-  <si>
-    <t>Gerente de RH</t>
-  </si>
-  <si>
-    <t>Gerente de Logistica</t>
-  </si>
-  <si>
-    <t>ValorAA</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>Financiera Prueba</t>
-  </si>
-  <si>
-    <t>Activo 1</t>
-  </si>
-  <si>
-    <t>ValorA</t>
-  </si>
-  <si>
-    <t>Acitvo B</t>
-  </si>
-  <si>
-    <t>TIPO C</t>
+    <t>Activo AAA</t>
+  </si>
+  <si>
+    <t>Unidad RH</t>
+  </si>
+  <si>
+    <t>Activo bbbb</t>
+  </si>
+  <si>
+    <t>TIPO D</t>
   </si>
   <si>
     <t>Categoria C</t>
@@ -131,25 +131,7 @@
     <t>Javier Prado 1005</t>
   </si>
   <si>
-    <t>Este riesgo esta por aprobar</t>
-  </si>
-  <si>
-    <t>LOGISTICA</t>
-  </si>
-  <si>
-    <t>UNIDAD EXTRA</t>
-  </si>
-  <si>
-    <t>ASA</t>
-  </si>
-  <si>
-    <t>ASAS</t>
-  </si>
-  <si>
-    <t>TIPO D</t>
-  </si>
-  <si>
-    <t>ASD</t>
+    <t>ValorB</t>
   </si>
 </sst>
 </file>
@@ -551,7 +533,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -590,10 +572,10 @@
         <v>28</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -602,15 +584,15 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -625,10 +607,10 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -655,15 +637,15 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>5</v>
+        <v>1007</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -681,19 +663,19 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
@@ -702,10 +684,10 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -714,21 +696,21 @@
         <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>6</v>
+        <v>1008</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -737,40 +719,40 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>ValorB</t>
+  </si>
+  <si>
+    <t>Activo B</t>
+  </si>
+  <si>
+    <t>TIPO E</t>
+  </si>
+  <si>
+    <t>Categoria D</t>
+  </si>
+  <si>
+    <t>Sub Gerente H</t>
+  </si>
+  <si>
+    <t>ValorBB</t>
+  </si>
+  <si>
+    <t>Esta es una prueba</t>
   </si>
 </sst>
 </file>
@@ -467,7 +485,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,6 +771,62 @@
       </c>
       <c r="R5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>1009</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -149,7 +149,25 @@
     <t>ValorBB</t>
   </si>
   <si>
-    <t>Esta es una prueba</t>
+    <t>Esta es una pruebaa</t>
+  </si>
+  <si>
+    <t>MACRO RH</t>
+  </si>
+  <si>
+    <t>PROCESO RH</t>
+  </si>
+  <si>
+    <t>Activo Testeo</t>
+  </si>
+  <si>
+    <t>Este es un comentario</t>
+  </si>
+  <si>
+    <t>Activo Testing</t>
+  </si>
+  <si>
+    <t>ValorAA</t>
   </si>
 </sst>
 </file>
@@ -485,7 +503,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +845,118 @@
       </c>
       <c r="R6" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>1010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>1011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>ValorAA</t>
+  </si>
+  <si>
+    <t>Activo testingg</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,6 +959,118 @@
         <v>50</v>
       </c>
       <c r="R8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>1013</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" t="s">
         <v>49</v>
       </c>
     </row>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+  <si>
+    <t>Reporte de inventario de clasificación de activo por usuario</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -69,6 +72,42 @@
   </si>
   <si>
     <t>Comentario</t>
+  </si>
+  <si>
+    <t>Financiera Efectiva SA</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Unidad Humanos</t>
+  </si>
+  <si>
+    <t>Rh Macro</t>
+  </si>
+  <si>
+    <t>Rh Proceso</t>
+  </si>
+  <si>
+    <t>Activo A</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Javier Prado</t>
+  </si>
+  <si>
+    <t>Gerente RH</t>
+  </si>
+  <si>
+    <t>ValorA</t>
+  </si>
+  <si>
+    <t>Activo D</t>
   </si>
 </sst>
 </file>
@@ -76,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -86,13 +125,37 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B7ADE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +164,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -404,71 +473,564 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:R2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -77,16 +77,16 @@
     <t>Financiera Efectiva SA</t>
   </si>
   <si>
-    <t>Recursos Humanos</t>
-  </si>
-  <si>
-    <t>Unidad Humanos</t>
-  </si>
-  <si>
-    <t>Rh Macro</t>
-  </si>
-  <si>
-    <t>Rh Proceso</t>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Infraestructura_y_Servicios_TI</t>
+  </si>
+  <si>
+    <t>Gestión_de_Centro_de_Datos</t>
+  </si>
+  <si>
+    <t>Gestión_de_Servicio_de_Terceros_Centro_de_Datos</t>
   </si>
   <si>
     <t>Activo A</t>
@@ -101,13 +101,13 @@
     <t>Javier Prado</t>
   </si>
   <si>
-    <t>Gerente RH</t>
+    <t>Gerente de IS TI</t>
   </si>
   <si>
     <t>ValorA</t>
   </si>
   <si>
-    <t>Activo D</t>
+    <t>Activo B</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -655,10 +655,10 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
@@ -688,342 +688,6 @@
         <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" t="s">
         <v>30</v>
       </c>
     </row>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
-    <t>Reporte de inventario de clasificación de activo por usuario</t>
+    <t>Reporte de inventario de clasificación de activo</t>
   </si>
   <si>
     <t>Id</t>
